--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -1,37 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A599D384-568E-674E-B8DE-05E44CFC37F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="18860" windowHeight="16140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="18860" windowHeight="16140" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="enabling_environment" sheetId="3" r:id="rId1"/>
-    <sheet name="market_creation" sheetId="1" r:id="rId2"/>
-    <sheet name="organisational_change" sheetId="2" r:id="rId3"/>
-    <sheet name="all" sheetId="4" r:id="rId4"/>
+    <sheet sheetId="3" name="enabling_environment" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="market_creation" state="visible" r:id="rId5"/>
+    <sheet sheetId="2" name="organisational_change" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="all" state="visible" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -39,6 +25,12 @@
     <t>email</t>
   </si>
   <si>
+    <t>org_name</t>
+  </si>
+  <si>
+    <t>org_type</t>
+  </si>
+  <si>
     <t>q1</t>
   </si>
   <si>
@@ -81,6 +73,18 @@
     <t>ee_result</t>
   </si>
   <si>
+    <t>Angleina Rianti</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
     <t>q4</t>
   </si>
   <si>
@@ -123,9 +127,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>Partially</t>
   </si>
   <si>
@@ -180,33 +181,39 @@
     <t>oc_result</t>
   </si>
   <si>
+    <t>Angelina Rianti</t>
+  </si>
+  <si>
+    <t>angelinarianti23@gmail.com</t>
+  </si>
+  <si>
+    <t>Swinburne</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
     <t>business_category</t>
-  </si>
-  <si>
-    <t>org_name</t>
-  </si>
-  <si>
-    <t>org_type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -547,16 +554,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="16" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,52 +571,69 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -618,16 +642,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="16" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -635,69 +659,108 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D1" t="s">
+      <c r="R1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>28</v>
+      <c r="S1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -706,16 +769,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="16" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -723,58 +786,130 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -783,19 +918,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125" customHeight="1"/>
   <cols>
-    <col min="7" max="7" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="16" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -803,19 +938,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
   <si>
     <t>name</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>Entirely</t>
+  </si>
+  <si>
+    <t>a a</t>
   </si>
   <si>
     <t>q7</t>
@@ -555,7 +558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="F8" sqref="F8"/>
@@ -636,6 +639,32 @@
         <v>36</v>
       </c>
     </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -643,7 +672,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="J5" sqref="J5"/>
@@ -665,66 +694,66 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
         <v>35</v>
@@ -761,6 +790,32 @@
       </c>
       <c r="T2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -947,10 +1002,10 @@
         <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -4,87 +4,250 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="18860" windowHeight="16140" activeTab="3"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="18860" windowHeight="16140"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="3" name="enabling_environment" state="visible" r:id="rId4"/>
-    <sheet sheetId="1" name="market_creation" state="visible" r:id="rId5"/>
-    <sheet sheetId="2" name="organisational_change" state="visible" r:id="rId6"/>
-    <sheet sheetId="4" name="all" state="visible" r:id="rId7"/>
+    <sheet sheetId="5" name="user" state="visible" r:id="rId4"/>
+    <sheet sheetId="3" name="enabling_environment" state="visible" r:id="rId5"/>
+    <sheet sheetId="1" name="market_creation" state="visible" r:id="rId6"/>
+    <sheet sheetId="2" name="organisational_change" state="visible" r:id="rId7"/>
+    <sheet sheetId="4" name="all" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="110">
+  <si>
+    <t>id</t>
+  </si>
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>org_name</t>
+  </si>
+  <si>
+    <t>industry</t>
+  </si>
+  <si>
+    <t>job_title</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
-    <t>org_name</t>
+    <t>years_of_experience</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>reason_of_use</t>
+  </si>
+  <si>
+    <t>hear_about_us</t>
+  </si>
+  <si>
+    <t>enganged_in_ce</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>1cg62</t>
+  </si>
+  <si>
+    <t>helo a</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Improve Sustainability</t>
+  </si>
+  <si>
+    <t>Curiosity about Circular Economy</t>
+  </si>
+  <si>
+    <t>Online Search</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>0xMx3</t>
+  </si>
+  <si>
+    <t>A1Bu4</t>
+  </si>
+  <si>
+    <t>aOhv5</t>
+  </si>
+  <si>
+    <t>Gpmd6</t>
+  </si>
+  <si>
+    <t>IPBu7</t>
+  </si>
+  <si>
+    <t>Ibwk8</t>
+  </si>
+  <si>
+    <t>kkme9</t>
+  </si>
+  <si>
+    <t>x7kb10</t>
+  </si>
+  <si>
+    <t>eN3N11</t>
+  </si>
+  <si>
+    <t>Qass12</t>
+  </si>
+  <si>
+    <t>hQ1913</t>
+  </si>
+  <si>
+    <t>wjrC14</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>0ZUQ15</t>
+  </si>
+  <si>
+    <t>DBmI16</t>
+  </si>
+  <si>
+    <t>CEkJ17</t>
+  </si>
+  <si>
+    <t>FmRH18</t>
+  </si>
+  <si>
+    <t>Ff3O19</t>
+  </si>
+  <si>
+    <t>kGOr20</t>
+  </si>
+  <si>
+    <t>7hoM21</t>
+  </si>
+  <si>
+    <t>NN3Q22</t>
+  </si>
+  <si>
+    <t>hJph23</t>
+  </si>
+  <si>
+    <t>PxR524</t>
+  </si>
+  <si>
+    <t>uLL925</t>
+  </si>
+  <si>
+    <t>WVTI26</t>
+  </si>
+  <si>
+    <t>OiC827</t>
+  </si>
+  <si>
+    <t>BkMu28</t>
+  </si>
+  <si>
+    <t>T9sg29</t>
+  </si>
+  <si>
+    <t>7o0c30</t>
+  </si>
+  <si>
+    <t>cDCO31</t>
+  </si>
+  <si>
+    <t>AiE732</t>
+  </si>
+  <si>
+    <t>lawb33</t>
+  </si>
+  <si>
+    <t>sEgK34</t>
+  </si>
+  <si>
+    <t>4oGR35</t>
+  </si>
+  <si>
+    <t>JB4L36</t>
+  </si>
+  <si>
+    <t>XWq137</t>
+  </si>
+  <si>
+    <t>lkjF38</t>
+  </si>
+  <si>
+    <t>a a</t>
+  </si>
+  <si>
+    <t>iatP39</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>sq1</t>
+  </si>
+  <si>
+    <t>sq2</t>
+  </si>
+  <si>
+    <t>sq3</t>
+  </si>
+  <si>
+    <t>sq4</t>
+  </si>
+  <si>
+    <t>sq5</t>
+  </si>
+  <si>
+    <t>sq6</t>
+  </si>
+  <si>
+    <t>sq7</t>
+  </si>
+  <si>
+    <t>sq8</t>
+  </si>
+  <si>
+    <t>sq9</t>
+  </si>
+  <si>
+    <t>sq10</t>
+  </si>
+  <si>
+    <t>ee_result</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>org_type</t>
   </si>
   <si>
-    <t>q1</t>
-  </si>
-  <si>
-    <t>q2</t>
-  </si>
-  <si>
-    <t>q3</t>
-  </si>
-  <si>
-    <t>sq1</t>
-  </si>
-  <si>
-    <t>sq2</t>
-  </si>
-  <si>
-    <t>sq3</t>
-  </si>
-  <si>
-    <t>sq4</t>
-  </si>
-  <si>
-    <t>sq5</t>
-  </si>
-  <si>
-    <t>sq6</t>
-  </si>
-  <si>
-    <t>sq7</t>
-  </si>
-  <si>
-    <t>sq8</t>
-  </si>
-  <si>
-    <t>sq9</t>
-  </si>
-  <si>
-    <t>sq10</t>
-  </si>
-  <si>
-    <t>ee_result</t>
-  </si>
-  <si>
-    <t>Angleina Rianti</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>q4</t>
   </si>
   <si>
@@ -133,7 +296,7 @@
     <t>Entirely</t>
   </si>
   <si>
-    <t>a a</t>
+    <t>Not at all</t>
   </si>
   <si>
     <t>q7</t>
@@ -182,18 +345,6 @@
   </si>
   <si>
     <t>oc_result</t>
-  </si>
-  <si>
-    <t>Angelina Rianti</t>
-  </si>
-  <si>
-    <t>angelinarianti23@gmail.com</t>
-  </si>
-  <si>
-    <t>Swinburne</t>
-  </si>
-  <si>
-    <t>School</t>
   </si>
   <si>
     <t>business_category</t>
@@ -203,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -217,6 +368,12 @@
       <scheme val="minor"/>
       <sz val="12"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FFFFFFFF"/>
+      <family val="2"/>
+      <sz val="14"/>
+      <name val="Monaco"/>
     </font>
   </fonts>
   <fills count="2">
@@ -239,11 +396,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,110 +717,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125" customHeight="1"/>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" ht="16" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" ht="16" customHeight="1" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="J2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" t="s">
+        <v>89</v>
+      </c>
+      <c r="O5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11">
         <v>0</v>
       </c>
     </row>
@@ -672,152 +947,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="J5" sqref="J5"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125" customHeight="1"/>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" ht="16" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-    </row>
+        <v>95</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -825,145 +1015,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0" zoomScale="86" zoomScaleNormal="57">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125" customHeight="1"/>
   <sheetData>
-    <row r="1" ht="16" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" ht="16" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" ht="19" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R2">
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
+    <row r="4" ht="15" customHeight="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R4">
+        <v>74</v>
+      </c>
+      <c r="O4">
         <v>0</v>
       </c>
     </row>
@@ -977,7 +1125,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125" customHeight="1"/>
@@ -987,25 +1135,1220 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.2" defaultColWidth="8.83203125"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="16" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+      <c r="L19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>32</v>
+      </c>
+      <c r="L20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
+      <c r="L21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G24" t="s">
+        <v>32</v>
+      </c>
+      <c r="L24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G25" t="s">
+        <v>32</v>
+      </c>
+      <c r="L25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" t="s">
+        <v>32</v>
+      </c>
+      <c r="L26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" t="s">
+        <v>32</v>
+      </c>
+      <c r="L27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="L28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+      <c r="L29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="L31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" t="s">
+        <v>32</v>
+      </c>
+      <c r="L35" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
-        <v>59</v>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" t="s">
+        <v>32</v>
+      </c>
+      <c r="G36" t="s">
+        <v>32</v>
+      </c>
+      <c r="L36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" t="s">
+        <v>32</v>
+      </c>
+      <c r="L37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+      <c r="L39" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/result.xlsx
+++ b/data/result.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="118">
   <si>
     <t>id</t>
   </si>
@@ -195,6 +195,30 @@
   </si>
   <si>
     <t>iatP39</t>
+  </si>
+  <si>
+    <t>3Zpv40</t>
+  </si>
+  <si>
+    <t>Wumc41</t>
+  </si>
+  <si>
+    <t>XZgj42</t>
+  </si>
+  <si>
+    <t>F8lG43</t>
+  </si>
+  <si>
+    <t>IETK44</t>
+  </si>
+  <si>
+    <t>Np4g45</t>
+  </si>
+  <si>
+    <t>oKZK46</t>
+  </si>
+  <si>
+    <t>cpFm47</t>
   </si>
   <si>
     <t>user_id</t>
@@ -717,7 +741,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -725,7 +749,7 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -737,66 +761,66 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" ht="16" customHeight="1" spans="6:16" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="J2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="P2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="2:18" x14ac:dyDescent="0.25">
@@ -813,13 +837,13 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -827,7 +851,7 @@
     </row>
     <row r="4" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -835,22 +859,22 @@
     </row>
     <row r="5" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="O5" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="Q5" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -858,13 +882,13 @@
     </row>
     <row r="6" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -872,13 +896,13 @@
     </row>
     <row r="7" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -886,13 +910,13 @@
     </row>
     <row r="8" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -900,13 +924,13 @@
     </row>
     <row r="9" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -914,13 +938,13 @@
     </row>
     <row r="10" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -928,15 +952,29 @@
     </row>
     <row r="11" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="R11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="6:18" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" t="s">
+        <v>82</v>
+      </c>
+      <c r="R12">
         <v>0</v>
       </c>
     </row>
@@ -947,7 +985,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="B1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -955,59 +993,73 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1015,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="86" zoomScaleNormal="57">
       <selection activeCell="B2" sqref="B2"/>
@@ -1025,49 +1077,49 @@
   <sheetData>
     <row r="1" ht="16" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -1075,13 +1127,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -1089,13 +1141,13 @@
     </row>
     <row r="3" ht="15" customHeight="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -1103,15 +1155,29 @@
     </row>
     <row r="4" ht="15" customHeight="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5">
         <v>0</v>
       </c>
     </row>
@@ -1144,16 +1210,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1163,7 +1229,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2"/>
@@ -2351,6 +2417,214 @@
         <v>32</v>
       </c>
     </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" t="s">
+        <v>32</v>
+      </c>
+      <c r="L40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>32</v>
+      </c>
+      <c r="L41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" t="s">
+        <v>32</v>
+      </c>
+      <c r="L42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="L43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" t="s">
+        <v>32</v>
+      </c>
+      <c r="G44" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="L45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" t="s">
+        <v>32</v>
+      </c>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
+      <c r="L46" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" t="s">
+        <v>32</v>
+      </c>
+      <c r="F47" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
